--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10031" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="799">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-3.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-3.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48104" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68565" uniqueCount="799">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31521,34 +31521,34 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>85</v>
@@ -31557,7 +31557,7 @@
         <v>85</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>85</v>
@@ -31572,34 +31572,34 @@
         <v>85</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="Y14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="AC14" s="5" t="s">
         <v>85</v>
@@ -31608,25 +31608,25 @@
         <v>85</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>85</v>
@@ -32806,10 +32806,10 @@
         <v>85</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>85</v>
@@ -32818,43 +32818,43 @@
         <v>85</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>85</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>85</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>85</v>
@@ -32863,10 +32863,10 @@
         <v>85</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>85</v>
@@ -32878,22 +32878,22 @@
         <v>85</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="AF25" s="5" t="s">
         <v>85</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>85</v>
@@ -32902,10 +32902,10 @@
         <v>85</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26">
@@ -34421,115 +34421,115 @@
         <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="40">
@@ -34537,115 +34537,115 @@
         <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -34653,115 +34653,115 @@
         <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>107</v>
+        <v>294</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>107</v>
+        <v>306</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>107</v>
+        <v>331</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>107</v>
+        <v>354</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>107</v>
+        <v>373</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>107</v>
+        <v>394</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>107</v>
+        <v>413</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>107</v>
+        <v>435</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>107</v>
+        <v>458</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>107</v>
+        <v>481</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>107</v>
+        <v>500</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>107</v>
+        <v>522</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>107</v>
+        <v>538</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>107</v>
+        <v>561</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>107</v>
+        <v>573</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>107</v>
+        <v>596</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>107</v>
+        <v>617</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>107</v>
+        <v>639</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>107</v>
+        <v>660</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>107</v>
+        <v>681</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>107</v>
+        <v>703</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>107</v>
+        <v>726</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>107</v>
+        <v>745</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>107</v>
+        <v>767</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>107</v>
+        <v>790</v>
       </c>
     </row>
     <row r="42">
